--- a/biology/Zoologie/Gobius/Gobius.xlsx
+++ b/biology/Zoologie/Gobius/Gobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobius est un genre de poissons osseux de l'ordre des Perciformes, de la famille des Gobiidae, de la sous-famille des Gobiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (25 décembre 2023)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (25 décembre 2023)
 Gobius ater Bellotti, 1888
 Gobius ateriformis Brito et Miller, 2001
 Gobius auratus Risso, 1810
@@ -541,9 +555,43 @@
 Gobius tropicus Osbeck, 1765
 Gobius vittatus Vinciguerra, 1883
 Gobius xanthocephalus Heymer et Zander, 1992 — Gobie doré ou Gobie à tête jaune
-Gobius xoriguer Iglésias, Vukić &amp; Šanda, 2021
-Espèces non reconnues ou déplacées
-Gobius albus, synonyme de Aphia minuta
+Gobius xoriguer Iglésias, Vukić &amp; Šanda, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gobius</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobius</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces non reconnues ou déplacées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gobius albus, synonyme de Aphia minuta
 Gobius baliurus, synonyme de Arcygobius baliurus</t>
         </is>
       </c>
